--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st06.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st06.xlsx
@@ -2564,7 +2564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Magallan"] Hehe. To borrow the words of one of the greats: "An explorer's best friend is loneliness!"
+    <t xml:space="preserve">[name="Magallan"] Hehe. To borrow the words of one of the greats: 'An explorer's best friend is loneliness!'
 </t>
   </si>
   <si>
@@ -2652,7 +2652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Magallan"] But when it comes to Infected stuff, we can't compare to a pharmaceutical company called "Rhodes Island..."
+    <t xml:space="preserve">[name="Magallan"] But when it comes to Infected stuff, we can't compare to a pharmaceutical company called 'Rhodes Island...'
 </t>
   </si>
   <si>
@@ -2964,7 +2964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Simone"] Allow me to reintroduce myself. I am a Rhodes Island Operator, codename "Santalla." I am here to retrieve you. Of course, you can keep calling me Simone.
+    <t xml:space="preserve">[name="Simone"] Allow me to reintroduce myself. I am a Rhodes Island Operator, codename 'Santalla.' I am here to retrieve you. Of course, you can keep calling me Simone.
 </t>
   </si>
   <si>
@@ -3076,19 +3076,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Simone"]  "...Listen ♪..."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Simone"]  "...Flourishing life blooming white, buried black seeds deep in the night... ♪"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Simone"]  "Sing out, pretty girl. Cry out, pretty girl ♪"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Simone"]  "The snow hears your song, the blizzard keeps you warm ♪"
+    <t xml:space="preserve">[name="Simone"]  '...Listen ♪...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Simone"]  '...Flourishing life blooming white, buried black seeds deep in the night... ♪'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Simone"]  'Sing out, pretty girl. Cry out, pretty girl ♪'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Simone"]  'The snow hears your song, the blizzard keeps you warm ♪'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st06.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st06.xlsx
@@ -2084,7 +2084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">08:30 A.M. - Snowstorm
+    <t xml:space="preserve">08:30 A.M. \ Snowstorm
 </t>
   </si>
   <si>
